--- a/gruppearbejde/Webravo Excalibur Scrum Burndown.xlsx
+++ b/gruppearbejde/Webravo Excalibur Scrum Burndown.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/webravo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/Excalibur/gruppearbejde/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F55FAF1-27F9-F640-80CB-C649867B499C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B11F5B79-5229-B848-BFB8-697E5BC2EC68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1325,19 +1325,19 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>#N/A</c:v>
@@ -1419,19 +1419,19 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>62.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>124.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>187.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>249.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>312</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>#N/A</c:v>
@@ -1524,7 +1524,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
@@ -1814,6 +1814,12 @@
           <c:cat>
             <c:strRef>
               <c:f>'Sprint 1 Example'!$C$16:$L$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
@@ -1822,6 +1828,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1860,6 +1869,12 @@
           <c:cat>
             <c:strRef>
               <c:f>'Sprint 1 Example'!$C$16:$L$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
@@ -1906,6 +1921,12 @@
           <c:cat>
             <c:strRef>
               <c:f>'Sprint 1 Example'!$C$16:$L$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
@@ -4074,8 +4095,8 @@
   </sheetPr>
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="122" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="12.75" customHeight="1"/>
@@ -4182,7 +4203,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="60">
-        <v>0</v>
+        <v>312</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>27</v>
@@ -4209,7 +4230,7 @@
         <v>28</v>
       </c>
       <c r="C6" s="62">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>29</v>
@@ -4245,7 +4266,7 @@
       <c r="N7" s="17"/>
       <c r="O7" s="121">
         <f>MAX(C16:L16)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" s="83"/>
       <c r="Q7" s="81"/>
@@ -4314,23 +4335,23 @@
       </c>
       <c r="C10" s="77">
         <f>IF(LEN(C9)&gt;0,(LOOKUP(9.99999999999999E+307,$C14:$L14))/(COUNT($C$14:$L$14))*C9,"")</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D10" s="77">
         <f t="shared" ref="D10:H10" si="0">IF(LEN(D9)&gt;0,(LOOKUP(9.99999999999999E+307,$C14:$L14))/(COUNT($C$14:$L$14))*D9,NA())</f>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="E10" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="F10" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="G10" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="H10" s="77" t="e">
         <f t="shared" si="0"/>
@@ -4367,23 +4388,23 @@
       </c>
       <c r="C11" s="77">
         <f>IF(LEN(C9)&gt;0,($C$5/MAX($C9:$L9))*C9,"")</f>
-        <v>0</v>
+        <v>62.4</v>
       </c>
       <c r="D11" s="77">
         <f t="shared" ref="D11:H11" si="2">IF(LEN(D9)&gt;0,($C$5/MAX($C9:$L9))*D9,NA())</f>
-        <v>0</v>
+        <v>124.8</v>
       </c>
       <c r="E11" s="77">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>187.2</v>
       </c>
       <c r="F11" s="77">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>249.6</v>
       </c>
       <c r="G11" s="77">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>312</v>
       </c>
       <c r="H11" s="77" t="e">
         <f t="shared" si="2"/>
@@ -4418,23 +4439,23 @@
       </c>
       <c r="C12" s="77">
         <f>IF(LEN(C9)&gt;0,IF(C13=0,C5,C5-C14),"")</f>
-        <v>0</v>
+        <v>291</v>
       </c>
       <c r="D12" s="77">
         <f t="shared" ref="D12" si="4">IF(D9&gt;0,IF(D13=0,C12,$C5-D14),NA())</f>
-        <v>0</v>
+        <v>291</v>
       </c>
       <c r="E12" s="77">
         <f t="shared" ref="E12" si="5">IF(E9&gt;0,IF(E13=0,D12,$C5-E14),NA())</f>
-        <v>0</v>
+        <v>291</v>
       </c>
       <c r="F12" s="77">
         <f t="shared" ref="F12" si="6">IF(F9&gt;0,IF(F13=0,E12,$C5-F14),NA())</f>
-        <v>0</v>
+        <v>291</v>
       </c>
       <c r="G12" s="77">
         <f t="shared" ref="G12" si="7">IF(G9&gt;0,IF(G13=0,F12,$C5-G14),NA())</f>
-        <v>0</v>
+        <v>291</v>
       </c>
       <c r="H12" s="77" t="e">
         <f t="shared" ref="H12" si="8">IF(H9&gt;0,IF(H13=0,G12,$C5-H14),NA())</f>
@@ -4460,7 +4481,7 @@
       <c r="N12" s="17"/>
       <c r="O12" s="119">
         <f>LOOKUP(9.99999999999999E+307,$C14:$L14)</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="P12" s="92" t="s">
         <v>58</v>
@@ -4473,7 +4494,7 @@
         <v>53</v>
       </c>
       <c r="C13" s="89">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D13" s="89"/>
       <c r="E13" s="89"/>
@@ -4489,7 +4510,7 @@
       <c r="O13" s="119"/>
       <c r="P13" s="91">
         <f>C5</f>
-        <v>0</v>
+        <v>312</v>
       </c>
       <c r="Q13" s="81"/>
     </row>
@@ -4500,7 +4521,7 @@
       </c>
       <c r="C14" s="87">
         <f>IF(LEN(C9)&gt;0,C13,"")</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D14" s="87" t="e">
         <f t="shared" ref="D14:F14" si="10">IF(LEN(D13)&gt;0,IF(LEN(D9)&gt;0,C14+D13,NA()),NA())</f>
@@ -4570,9 +4591,9 @@
       <c r="B16" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="70" t="str">
+      <c r="C16" s="70">
         <f>IF(SUM(C17:C24)&gt;0,C9,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="D16" s="70"/>
       <c r="E16" s="70"/>
@@ -4614,7 +4635,9 @@
       <c r="B17" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="78"/>
+      <c r="C17" s="78">
+        <v>2</v>
+      </c>
       <c r="D17" s="78"/>
       <c r="E17" s="78"/>
       <c r="F17" s="78"/>
@@ -4649,9 +4672,9 @@
       <c r="L18" s="79"/>
       <c r="M18" s="16"/>
       <c r="N18" s="16"/>
-      <c r="O18" s="111" t="e">
+      <c r="O18" s="111">
         <f>LOOKUP(9.99999999999999E+307,$C17:$L17)</f>
-        <v>#N/A</v>
+        <v>2</v>
       </c>
       <c r="P18" s="90" t="s">
         <v>58</v>
@@ -4680,7 +4703,7 @@
       <c r="O19" s="111"/>
       <c r="P19" s="113">
         <f>C6</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q19" s="19"/>
     </row>
@@ -4768,9 +4791,9 @@
       <c r="L23" s="79"/>
       <c r="M23" s="17"/>
       <c r="N23" s="17"/>
-      <c r="O23" s="99" t="e">
+      <c r="O23" s="99">
         <f>(COUNTIFS(C16:L16,"&gt;0"))/O18</f>
-        <v>#N/A</v>
+        <v>0.5</v>
       </c>
       <c r="P23" s="100"/>
       <c r="Q23" s="19"/>
@@ -4780,7 +4803,9 @@
       <c r="B24" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="78"/>
+      <c r="C24" s="78">
+        <v>22</v>
+      </c>
       <c r="D24" s="78"/>
       <c r="E24" s="78"/>
       <c r="F24" s="78"/>
@@ -4801,9 +4826,9 @@
       <c r="B25" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="75" t="str">
+      <c r="C25" s="75">
         <f t="shared" ref="C25:L25" si="13">IF(SUM(C17:C24)&gt;0,SUM(C17:C24)-$C$6,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="D25" s="75" t="str">
         <f t="shared" si="13"/>
@@ -4963,6 +4988,7 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B2:N2"/>
     <mergeCell ref="O16:P17"/>
     <mergeCell ref="O23:P25"/>
     <mergeCell ref="O21:P22"/>
@@ -4973,7 +4999,6 @@
     <mergeCell ref="P10:P11"/>
     <mergeCell ref="O12:O14"/>
     <mergeCell ref="O7:O9"/>
-    <mergeCell ref="B2:N2"/>
   </mergeCells>
   <conditionalFormatting sqref="B9:L9 B16:L16">
     <cfRule type="notContainsBlanks" dxfId="3" priority="2">

--- a/gruppearbejde/Webravo Excalibur Scrum Burndown.xlsx
+++ b/gruppearbejde/Webravo Excalibur Scrum Burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/Excalibur/gruppearbejde/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B11F5B79-5229-B848-BFB8-697E5BC2EC68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1967E30-1581-6943-BE88-79A998907244}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1078,6 +1078,9 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1158,9 +1161,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1325,19 +1325,19 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>21</c:v>
+                  <c:v>39.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>63</c:v>
+                  <c:v>118.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>84</c:v>
+                  <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>105</c:v>
+                  <c:v>197.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>#N/A</c:v>
@@ -1527,7 +1527,7 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>#N/A</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>#N/A</c:v>
@@ -1815,9 +1815,12 @@
             <c:strRef>
               <c:f>'Sprint 1 Example'!$C$16:$L$16</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1830,6 +1833,9 @@
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1870,9 +1876,12 @@
             <c:strRef>
               <c:f>'Sprint 1 Example'!$C$16:$L$16</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1922,9 +1931,12 @@
             <c:strRef>
               <c:f>'Sprint 1 Example'!$C$16:$L$16</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4095,8 +4107,8 @@
   </sheetPr>
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="122" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="122" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="12.75" customHeight="1"/>
@@ -4132,21 +4144,21 @@
     </row>
     <row r="2" spans="1:17" ht="62" customHeight="1">
       <c r="A2" s="94"/>
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="95" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="122"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
+      <c r="N2" s="95"/>
       <c r="O2" s="94"/>
       <c r="P2" s="94"/>
       <c r="Q2" s="94"/>
@@ -4218,10 +4230,10 @@
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
       <c r="N5" s="17"/>
-      <c r="O5" s="107" t="s">
+      <c r="O5" s="108" t="s">
         <v>55</v>
       </c>
-      <c r="P5" s="108"/>
+      <c r="P5" s="109"/>
       <c r="Q5" s="80"/>
     </row>
     <row r="6" spans="1:17" ht="17.25" customHeight="1">
@@ -4245,8 +4257,8 @@
       <c r="L6" s="17"/>
       <c r="M6" s="17"/>
       <c r="N6" s="17"/>
-      <c r="O6" s="109"/>
-      <c r="P6" s="110"/>
+      <c r="O6" s="110"/>
+      <c r="P6" s="111"/>
       <c r="Q6" s="81"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1">
@@ -4264,9 +4276,9 @@
       <c r="L7" s="16"/>
       <c r="M7" s="17"/>
       <c r="N7" s="17"/>
-      <c r="O7" s="121">
+      <c r="O7" s="122">
         <f>MAX(C16:L16)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P7" s="83"/>
       <c r="Q7" s="81"/>
@@ -4286,7 +4298,7 @@
       <c r="L8" s="16"/>
       <c r="M8" s="17"/>
       <c r="N8" s="17"/>
-      <c r="O8" s="121"/>
+      <c r="O8" s="122"/>
       <c r="P8" s="84" t="s">
         <v>57</v>
       </c>
@@ -4324,7 +4336,7 @@
       <c r="L9" s="65"/>
       <c r="M9" s="17"/>
       <c r="N9" s="17"/>
-      <c r="O9" s="121"/>
+      <c r="O9" s="122"/>
       <c r="P9" s="85"/>
       <c r="Q9" s="81"/>
     </row>
@@ -4335,23 +4347,23 @@
       </c>
       <c r="C10" s="77">
         <f>IF(LEN(C9)&gt;0,(LOOKUP(9.99999999999999E+307,$C14:$L14))/(COUNT($C$14:$L$14))*C9,"")</f>
-        <v>21</v>
+        <v>39.5</v>
       </c>
       <c r="D10" s="77">
         <f t="shared" ref="D10:H10" si="0">IF(LEN(D9)&gt;0,(LOOKUP(9.99999999999999E+307,$C14:$L14))/(COUNT($C$14:$L$14))*D9,NA())</f>
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="E10" s="77">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>118.5</v>
       </c>
       <c r="F10" s="77">
         <f t="shared" si="0"/>
-        <v>84</v>
+        <v>158</v>
       </c>
       <c r="G10" s="77">
         <f t="shared" si="0"/>
-        <v>105</v>
+        <v>197.5</v>
       </c>
       <c r="H10" s="77" t="e">
         <f t="shared" si="0"/>
@@ -4375,10 +4387,10 @@
       </c>
       <c r="M10" s="17"/>
       <c r="N10" s="17"/>
-      <c r="O10" s="115" t="s">
+      <c r="O10" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="P10" s="117"/>
+      <c r="P10" s="118"/>
       <c r="Q10" s="80"/>
     </row>
     <row r="11" spans="1:17" ht="17.25" customHeight="1">
@@ -4428,8 +4440,8 @@
       </c>
       <c r="M11" s="17"/>
       <c r="N11" s="17"/>
-      <c r="O11" s="116"/>
-      <c r="P11" s="118"/>
+      <c r="O11" s="117"/>
+      <c r="P11" s="119"/>
       <c r="Q11" s="81"/>
     </row>
     <row r="12" spans="1:17" ht="17.25" customHeight="1">
@@ -4443,19 +4455,19 @@
       </c>
       <c r="D12" s="77">
         <f t="shared" ref="D12" si="4">IF(D9&gt;0,IF(D13=0,C12,$C5-D14),NA())</f>
-        <v>291</v>
+        <v>233</v>
       </c>
       <c r="E12" s="77">
         <f t="shared" ref="E12" si="5">IF(E9&gt;0,IF(E13=0,D12,$C5-E14),NA())</f>
-        <v>291</v>
+        <v>233</v>
       </c>
       <c r="F12" s="77">
         <f t="shared" ref="F12" si="6">IF(F9&gt;0,IF(F13=0,E12,$C5-F14),NA())</f>
-        <v>291</v>
+        <v>233</v>
       </c>
       <c r="G12" s="77">
         <f t="shared" ref="G12" si="7">IF(G9&gt;0,IF(G13=0,F12,$C5-G14),NA())</f>
-        <v>291</v>
+        <v>233</v>
       </c>
       <c r="H12" s="77" t="e">
         <f t="shared" ref="H12" si="8">IF(H9&gt;0,IF(H13=0,G12,$C5-H14),NA())</f>
@@ -4479,9 +4491,9 @@
       </c>
       <c r="M12" s="17"/>
       <c r="N12" s="17"/>
-      <c r="O12" s="119">
+      <c r="O12" s="120">
         <f>LOOKUP(9.99999999999999E+307,$C14:$L14)</f>
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="P12" s="92" t="s">
         <v>58</v>
@@ -4496,7 +4508,9 @@
       <c r="C13" s="89">
         <v>21</v>
       </c>
-      <c r="D13" s="89"/>
+      <c r="D13" s="89">
+        <v>58</v>
+      </c>
       <c r="E13" s="89"/>
       <c r="F13" s="89"/>
       <c r="G13" s="89"/>
@@ -4507,7 +4521,7 @@
       <c r="L13" s="89"/>
       <c r="M13" s="17"/>
       <c r="N13" s="17"/>
-      <c r="O13" s="119"/>
+      <c r="O13" s="120"/>
       <c r="P13" s="91">
         <f>C5</f>
         <v>312</v>
@@ -4523,9 +4537,9 @@
         <f>IF(LEN(C9)&gt;0,C13,"")</f>
         <v>21</v>
       </c>
-      <c r="D14" s="87" t="e">
+      <c r="D14" s="87">
         <f t="shared" ref="D14:F14" si="10">IF(LEN(D13)&gt;0,IF(LEN(D9)&gt;0,C14+D13,NA()),NA())</f>
-        <v>#N/A</v>
+        <v>79</v>
       </c>
       <c r="E14" s="87" t="e">
         <f t="shared" si="10"/>
@@ -4561,7 +4575,7 @@
       </c>
       <c r="M14" s="17"/>
       <c r="N14" s="17"/>
-      <c r="O14" s="120"/>
+      <c r="O14" s="121"/>
       <c r="P14" s="93"/>
       <c r="Q14" s="82"/>
     </row>
@@ -4595,7 +4609,9 @@
         <f>IF(SUM(C17:C24)&gt;0,C9,"")</f>
         <v>1</v>
       </c>
-      <c r="D16" s="70"/>
+      <c r="D16" s="70">
+        <v>2</v>
+      </c>
       <c r="E16" s="70"/>
       <c r="F16" s="70"/>
       <c r="G16" s="70" t="str">
@@ -4624,10 +4640,10 @@
       </c>
       <c r="M16" s="17"/>
       <c r="N16" s="17"/>
-      <c r="O16" s="95" t="s">
+      <c r="O16" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="P16" s="96"/>
+      <c r="P16" s="97"/>
       <c r="Q16" s="19"/>
     </row>
     <row r="17" spans="1:17" ht="17.25" customHeight="1">
@@ -4638,7 +4654,9 @@
       <c r="C17" s="78">
         <v>2</v>
       </c>
-      <c r="D17" s="78"/>
+      <c r="D17" s="78">
+        <v>7</v>
+      </c>
       <c r="E17" s="78"/>
       <c r="F17" s="78"/>
       <c r="G17" s="78"/>
@@ -4649,8 +4667,8 @@
       <c r="L17" s="79"/>
       <c r="M17" s="17"/>
       <c r="N17" s="17"/>
-      <c r="O17" s="97"/>
-      <c r="P17" s="98"/>
+      <c r="O17" s="98"/>
+      <c r="P17" s="99"/>
       <c r="Q17" s="19"/>
     </row>
     <row r="18" spans="1:17" ht="17.25" customHeight="1">
@@ -4672,9 +4690,9 @@
       <c r="L18" s="79"/>
       <c r="M18" s="16"/>
       <c r="N18" s="16"/>
-      <c r="O18" s="111">
+      <c r="O18" s="112">
         <f>LOOKUP(9.99999999999999E+307,$C17:$L17)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="P18" s="90" t="s">
         <v>58</v>
@@ -4700,8 +4718,8 @@
       <c r="L19" s="79"/>
       <c r="M19" s="16"/>
       <c r="N19" s="16"/>
-      <c r="O19" s="111"/>
-      <c r="P19" s="113">
+      <c r="O19" s="112"/>
+      <c r="P19" s="114">
         <f>C6</f>
         <v>24</v>
       </c>
@@ -4726,8 +4744,8 @@
       <c r="L20" s="79"/>
       <c r="M20" s="16"/>
       <c r="N20" s="16"/>
-      <c r="O20" s="112"/>
-      <c r="P20" s="114"/>
+      <c r="O20" s="113"/>
+      <c r="P20" s="115"/>
       <c r="Q20" s="19"/>
     </row>
     <row r="21" spans="1:17" ht="17.25" customHeight="1">
@@ -4747,10 +4765,10 @@
       <c r="L21" s="79"/>
       <c r="M21" s="17"/>
       <c r="N21" s="17"/>
-      <c r="O21" s="103" t="s">
+      <c r="O21" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="P21" s="104"/>
+      <c r="P21" s="105"/>
       <c r="Q21" s="19"/>
     </row>
     <row r="22" spans="1:17" ht="17.25" customHeight="1">
@@ -4770,8 +4788,8 @@
       <c r="L22" s="79"/>
       <c r="M22" s="17"/>
       <c r="N22" s="17"/>
-      <c r="O22" s="105"/>
-      <c r="P22" s="106"/>
+      <c r="O22" s="106"/>
+      <c r="P22" s="107"/>
       <c r="Q22" s="19"/>
     </row>
     <row r="23" spans="1:17" ht="17.25" customHeight="1">
@@ -4791,11 +4809,11 @@
       <c r="L23" s="79"/>
       <c r="M23" s="17"/>
       <c r="N23" s="17"/>
-      <c r="O23" s="99">
+      <c r="O23" s="100">
         <f>(COUNTIFS(C16:L16,"&gt;0"))/O18</f>
-        <v>0.5</v>
-      </c>
-      <c r="P23" s="100"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="P23" s="101"/>
       <c r="Q23" s="19"/>
     </row>
     <row r="24" spans="1:17" ht="17.25" customHeight="1">
@@ -4806,7 +4824,9 @@
       <c r="C24" s="78">
         <v>22</v>
       </c>
-      <c r="D24" s="78"/>
+      <c r="D24" s="78">
+        <v>17</v>
+      </c>
       <c r="E24" s="78"/>
       <c r="F24" s="78"/>
       <c r="G24" s="78"/>
@@ -4817,8 +4837,8 @@
       <c r="L24" s="79"/>
       <c r="M24" s="17"/>
       <c r="N24" s="17"/>
-      <c r="O24" s="99"/>
-      <c r="P24" s="100"/>
+      <c r="O24" s="100"/>
+      <c r="P24" s="101"/>
       <c r="Q24" s="19"/>
     </row>
     <row r="25" spans="1:17" ht="17.25" customHeight="1" thickBot="1">
@@ -4830,9 +4850,9 @@
         <f t="shared" ref="C25:L25" si="13">IF(SUM(C17:C24)&gt;0,SUM(C17:C24)-$C$6,"")</f>
         <v>0</v>
       </c>
-      <c r="D25" s="75" t="str">
+      <c r="D25" s="75">
         <f t="shared" si="13"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E25" s="75" t="str">
         <f t="shared" si="13"/>
@@ -4868,8 +4888,8 @@
       </c>
       <c r="M25" s="17"/>
       <c r="N25" s="17"/>
-      <c r="O25" s="101"/>
-      <c r="P25" s="102"/>
+      <c r="O25" s="102"/>
+      <c r="P25" s="103"/>
       <c r="Q25" s="19"/>
     </row>
     <row r="26" spans="1:17" ht="17.25" customHeight="1">

--- a/gruppearbejde/Webravo Excalibur Scrum Burndown.xlsx
+++ b/gruppearbejde/Webravo Excalibur Scrum Burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/Excalibur/gruppearbejde/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1967E30-1581-6943-BE88-79A998907244}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E133857A-94F0-1544-9B68-487B7B5188B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4107,8 +4107,8 @@
   </sheetPr>
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="122" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="125" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="12.75" customHeight="1"/>

--- a/gruppearbejde/Webravo Excalibur Scrum Burndown.xlsx
+++ b/gruppearbejde/Webravo Excalibur Scrum Burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/Excalibur/gruppearbejde/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E133857A-94F0-1544-9B68-487B7B5188B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A256D4-5C3F-1646-B67F-318C25F1E634}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1312,9 +1312,6 @@
                 <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1325,19 +1322,19 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>39.5</c:v>
+                  <c:v>36.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>79</c:v>
+                  <c:v>73.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>118.5</c:v>
+                  <c:v>110.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>158</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>197.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>#N/A</c:v>
@@ -1406,9 +1403,6 @@
                 <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1419,19 +1413,19 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>62.4</c:v>
+                  <c:v>81.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>124.8</c:v>
+                  <c:v>163.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>187.2</c:v>
+                  <c:v>245.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>249.6</c:v>
+                  <c:v>327</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>312</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>#N/A</c:v>
@@ -1511,9 +1505,6 @@
                 <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1530,10 +1521,10 @@
                   <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>#N/A</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>#N/A</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>#N/A</c:v>
@@ -1815,12 +1806,18 @@
             <c:strRef>
               <c:f>'Sprint 1 Example'!$C$16:$L$16</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1836,6 +1833,12 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1876,12 +1879,18 @@
             <c:strRef>
               <c:f>'Sprint 1 Example'!$C$16:$L$16</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1931,12 +1940,18 @@
             <c:strRef>
               <c:f>'Sprint 1 Example'!$C$16:$L$16</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1947,6 +1962,12 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4108,7 +4129,7 @@
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="125" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="12.75" customHeight="1"/>
@@ -4215,7 +4236,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="60">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>27</v>
@@ -4242,7 +4263,7 @@
         <v>28</v>
       </c>
       <c r="C6" s="62">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>29</v>
@@ -4278,7 +4299,7 @@
       <c r="N7" s="17"/>
       <c r="O7" s="122">
         <f>MAX(C16:L16)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P7" s="83"/>
       <c r="Q7" s="81"/>
@@ -4326,9 +4347,7 @@
       <c r="F9" s="64">
         <v>4</v>
       </c>
-      <c r="G9" s="64">
-        <v>5</v>
-      </c>
+      <c r="G9" s="64"/>
       <c r="H9" s="64"/>
       <c r="I9" s="64"/>
       <c r="J9" s="64"/>
@@ -4347,23 +4366,23 @@
       </c>
       <c r="C10" s="77">
         <f>IF(LEN(C9)&gt;0,(LOOKUP(9.99999999999999E+307,$C14:$L14))/(COUNT($C$14:$L$14))*C9,"")</f>
-        <v>39.5</v>
+        <v>36.75</v>
       </c>
       <c r="D10" s="77">
         <f t="shared" ref="D10:H10" si="0">IF(LEN(D9)&gt;0,(LOOKUP(9.99999999999999E+307,$C14:$L14))/(COUNT($C$14:$L$14))*D9,NA())</f>
-        <v>79</v>
+        <v>73.5</v>
       </c>
       <c r="E10" s="77">
         <f t="shared" si="0"/>
-        <v>118.5</v>
+        <v>110.25</v>
       </c>
       <c r="F10" s="77">
         <f t="shared" si="0"/>
-        <v>158</v>
-      </c>
-      <c r="G10" s="77">
+        <v>147</v>
+      </c>
+      <c r="G10" s="77" t="e">
         <f t="shared" si="0"/>
-        <v>197.5</v>
+        <v>#N/A</v>
       </c>
       <c r="H10" s="77" t="e">
         <f t="shared" si="0"/>
@@ -4400,23 +4419,23 @@
       </c>
       <c r="C11" s="77">
         <f>IF(LEN(C9)&gt;0,($C$5/MAX($C9:$L9))*C9,"")</f>
-        <v>62.4</v>
+        <v>81.75</v>
       </c>
       <c r="D11" s="77">
         <f t="shared" ref="D11:H11" si="2">IF(LEN(D9)&gt;0,($C$5/MAX($C9:$L9))*D9,NA())</f>
-        <v>124.8</v>
+        <v>163.5</v>
       </c>
       <c r="E11" s="77">
         <f t="shared" si="2"/>
-        <v>187.2</v>
+        <v>245.25</v>
       </c>
       <c r="F11" s="77">
         <f t="shared" si="2"/>
-        <v>249.6</v>
-      </c>
-      <c r="G11" s="77">
+        <v>327</v>
+      </c>
+      <c r="G11" s="77" t="e">
         <f t="shared" si="2"/>
-        <v>312</v>
+        <v>#N/A</v>
       </c>
       <c r="H11" s="77" t="e">
         <f t="shared" si="2"/>
@@ -4451,23 +4470,23 @@
       </c>
       <c r="C12" s="77">
         <f>IF(LEN(C9)&gt;0,IF(C13=0,C5,C5-C14),"")</f>
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="D12" s="77">
         <f t="shared" ref="D12" si="4">IF(D9&gt;0,IF(D13=0,C12,$C5-D14),NA())</f>
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="E12" s="77">
         <f t="shared" ref="E12" si="5">IF(E9&gt;0,IF(E13=0,D12,$C5-E14),NA())</f>
-        <v>233</v>
+        <v>180</v>
       </c>
       <c r="F12" s="77">
         <f t="shared" ref="F12" si="6">IF(F9&gt;0,IF(F13=0,E12,$C5-F14),NA())</f>
-        <v>233</v>
-      </c>
-      <c r="G12" s="77">
+        <v>180</v>
+      </c>
+      <c r="G12" s="77" t="e">
         <f t="shared" ref="G12" si="7">IF(G9&gt;0,IF(G13=0,F12,$C5-G14),NA())</f>
-        <v>233</v>
+        <v>#N/A</v>
       </c>
       <c r="H12" s="77" t="e">
         <f t="shared" ref="H12" si="8">IF(H9&gt;0,IF(H13=0,G12,$C5-H14),NA())</f>
@@ -4493,7 +4512,7 @@
       <c r="N12" s="17"/>
       <c r="O12" s="120">
         <f>LOOKUP(9.99999999999999E+307,$C14:$L14)</f>
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="P12" s="92" t="s">
         <v>58</v>
@@ -4511,8 +4530,12 @@
       <c r="D13" s="89">
         <v>58</v>
       </c>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
+      <c r="E13" s="89">
+        <v>68</v>
+      </c>
+      <c r="F13" s="89">
+        <v>0</v>
+      </c>
       <c r="G13" s="89"/>
       <c r="H13" s="89"/>
       <c r="I13" s="89"/>
@@ -4524,7 +4547,7 @@
       <c r="O13" s="120"/>
       <c r="P13" s="91">
         <f>C5</f>
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="Q13" s="81"/>
     </row>
@@ -4541,13 +4564,13 @@
         <f t="shared" ref="D14:F14" si="10">IF(LEN(D13)&gt;0,IF(LEN(D9)&gt;0,C14+D13,NA()),NA())</f>
         <v>79</v>
       </c>
-      <c r="E14" s="87" t="e">
+      <c r="E14" s="87">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F14" s="87" t="e">
+        <v>147</v>
+      </c>
+      <c r="F14" s="87">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>147</v>
       </c>
       <c r="G14" s="87" t="e">
         <f>IF(LEN(G13)&gt;0,IF(LEN(G9)&gt;0,F14+G13,NA()),NA())</f>
@@ -4612,8 +4635,12 @@
       <c r="D16" s="70">
         <v>2</v>
       </c>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
+      <c r="E16" s="70">
+        <v>3</v>
+      </c>
+      <c r="F16" s="70">
+        <v>4</v>
+      </c>
       <c r="G16" s="70" t="str">
         <f t="shared" ref="G16:L16" si="12">IF(SUM(G17:G24)&gt;0,G9,"")</f>
         <v/>
@@ -4657,8 +4684,12 @@
       <c r="D17" s="78">
         <v>7</v>
       </c>
-      <c r="E17" s="78"/>
-      <c r="F17" s="78"/>
+      <c r="E17" s="78">
+        <v>13</v>
+      </c>
+      <c r="F17" s="78">
+        <v>13</v>
+      </c>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
       <c r="I17" s="78"/>
@@ -4692,7 +4723,7 @@
       <c r="N18" s="16"/>
       <c r="O18" s="112">
         <f>LOOKUP(9.99999999999999E+307,$C17:$L17)</f>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="P18" s="90" t="s">
         <v>58</v>
@@ -4708,8 +4739,12 @@
       </c>
       <c r="C19" s="78"/>
       <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="78"/>
+      <c r="E19" s="78">
+        <v>6</v>
+      </c>
+      <c r="F19" s="78">
+        <v>6</v>
+      </c>
       <c r="G19" s="78"/>
       <c r="H19" s="78"/>
       <c r="I19" s="78"/>
@@ -4721,7 +4756,7 @@
       <c r="O19" s="112"/>
       <c r="P19" s="114">
         <f>C6</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q19" s="19"/>
     </row>
@@ -4811,7 +4846,7 @@
       <c r="N23" s="17"/>
       <c r="O23" s="100">
         <f>(COUNTIFS(C16:L16,"&gt;0"))/O18</f>
-        <v>0.2857142857142857</v>
+        <v>0.30769230769230771</v>
       </c>
       <c r="P23" s="101"/>
       <c r="Q23" s="19"/>
@@ -4827,8 +4862,12 @@
       <c r="D24" s="78">
         <v>17</v>
       </c>
-      <c r="E24" s="78"/>
-      <c r="F24" s="78"/>
+      <c r="E24" s="78">
+        <v>6</v>
+      </c>
+      <c r="F24" s="78">
+        <v>6</v>
+      </c>
       <c r="G24" s="78"/>
       <c r="H24" s="78"/>
       <c r="I24" s="78"/>
@@ -4848,19 +4887,19 @@
       </c>
       <c r="C25" s="75">
         <f t="shared" ref="C25:L25" si="13">IF(SUM(C17:C24)&gt;0,SUM(C17:C24)-$C$6,"")</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D25" s="75">
         <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="E25" s="75">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="E25" s="75" t="str">
+      <c r="F25" s="75">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="F25" s="75" t="str">
-        <f t="shared" si="13"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="G25" s="75" t="str">
         <f t="shared" si="13"/>
